--- a/permittivity_parameters.xlsx
+++ b/permittivity_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Terahertz_inbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208713A-CD3F-4777-A79C-7C823E7C9008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90924D7D-5A23-4DDC-86D7-EDB672E87853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,10 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +406,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,10 +427,10 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -443,7 +442,7 @@
         <v>2.1</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -454,7 +453,7 @@
         <v>130</v>
       </c>
       <c r="C3">
-        <v>1.1399999999999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -465,16 +464,13 @@
         <v>3.8</v>
       </c>
       <c r="C4">
-        <v>9.8000000000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>3.5000000000000003E-2</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -484,7 +480,7 @@
         <v>14.4</v>
       </c>
       <c r="C6">
-        <v>2.2999999999999998</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -495,39 +491,27 @@
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>15.9</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>0.89</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0.78</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">

--- a/permittivity_parameters.xlsx
+++ b/permittivity_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Terahertz_inbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90924D7D-5A23-4DDC-86D7-EDB672E87853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86E3BA3-FA85-4CA8-833D-C70185D47FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Parameter</t>
   </si>
@@ -48,34 +48,13 @@
     <t>$\tau_1 \si{\pico\second}$</t>
   </si>
   <si>
-    <t>$\alpha_1$</t>
-  </si>
-  <si>
-    <t>$\alpha_2$</t>
-  </si>
-  <si>
-    <t>$\beta_1$</t>
-  </si>
-  <si>
-    <t>$\beta_2$</t>
-  </si>
-  <si>
-    <t>$\sigma \si{\siemens\per\meter}$</t>
-  </si>
-  <si>
-    <t>Fat \cite{piro2016terahertz}</t>
-  </si>
-  <si>
     <t>$d \si{\milli\meter}$</t>
   </si>
   <si>
-    <t>Dermis</t>
-  </si>
-  <si>
-    <t>Epidermis</t>
-  </si>
-  <si>
-    <t>Stratum Corneum</t>
+    <t>Fat \cite{yang2017collagen}</t>
+  </si>
+  <si>
+    <t>Skin \cite{yaws2007electromagnetic}</t>
   </si>
 </sst>
 </file>
@@ -111,7 +90,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -120,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -403,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,25 +394,21 @@
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -444,6 +420,9 @@
       <c r="C2">
         <v>1.63</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -455,6 +434,9 @@
       <c r="C3">
         <v>500</v>
       </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -466,60 +448,50 @@
       <c r="C4">
         <v>100</v>
       </c>
+      <c r="D4">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>14.4</v>
+      </c>
+      <c r="C5">
+        <v>17.7</v>
+      </c>
+      <c r="D5">
+        <v>10.6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>14.4</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>17.7</v>
+        <v>3.64</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
         <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/permittivity_parameters.xlsx
+++ b/permittivity_parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Terahertz_inbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86E3BA3-FA85-4CA8-833D-C70185D47FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E690C3-7C95-4602-BFAE-C79046809AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="permittivity" sheetId="1" r:id="rId1"/>
+    <sheet name="Antenna" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Parameter</t>
   </si>
@@ -55,6 +56,87 @@
   </si>
   <si>
     <t>Skin \cite{yaws2007electromagnetic}</t>
+  </si>
+  <si>
+    <t>$W$</t>
+  </si>
+  <si>
+    <t>Paremeter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>$\SI{8}{\micro\meter}$</t>
+  </si>
+  <si>
+    <t>$L$</t>
+  </si>
+  <si>
+    <t>$\SI{20}{\micro\meter}$</t>
+  </si>
+  <si>
+    <t>$G$</t>
+  </si>
+  <si>
+    <t>$\SI{3}{\micro\meter}$</t>
+  </si>
+  <si>
+    <t>$\SI{50}{\micro\meter}$</t>
+  </si>
+  <si>
+    <t>$L_s$</t>
+  </si>
+  <si>
+    <t>$W_s$</t>
+  </si>
+  <si>
+    <t>$h_s$</t>
+  </si>
+  <si>
+    <t>$\SI{5}{\micro\meter}$</t>
+  </si>
+  <si>
+    <t>$\epsilon_\mathrm{shield}$</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>$\tau$</t>
+  </si>
+  <si>
+    <t>Graphene relaxation time</t>
+  </si>
+  <si>
+    <t>$\SI{1}{\pico\second}$</t>
+  </si>
+  <si>
+    <t>$E_F$</t>
+  </si>
+  <si>
+    <t>Graphene chemical potential</t>
+  </si>
+  <si>
+    <t>$\SI{0.6}{\e\volt}$</t>
+  </si>
+  <si>
+    <t>$\epsilon_\mathrm{Quartz}$</t>
+  </si>
+  <si>
+    <t>$3.75$</t>
+  </si>
+  <si>
+    <t>Permittivity of substrate</t>
+  </si>
+  <si>
+    <t>Permittivity of \ac{PDMS}</t>
+  </si>
+  <si>
+    <t>\cite{bakar2019polydimethylsiloxane}</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -99,9 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,23 +475,21 @@
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -438,7 +517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -452,7 +531,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -466,7 +545,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -480,7 +559,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -492,6 +571,130 @@
       </c>
       <c r="D7">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC23728B-6A6E-4DBD-9B52-FFF8AA7FE1D8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2.76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
